--- a/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,215 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -866,7 +867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,17 +878,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -897,14 +918,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -913,13 +956,191 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001411</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>61.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7148</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011506</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0937</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002051</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011507</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>
@@ -722,22 +598,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>71.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2521</t>
+          <t>0.2802</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -760,22 +636,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -788,33 +664,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008071</t>
+          <t>007863</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合E</t>
+          <t>长信利泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -826,12 +700,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007863</t>
+          <t>008071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合C</t>
+          <t>长信利泰灵活配置混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -841,12 +715,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -928,22 +802,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.89</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2802</t>
+          <t>0.2521</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -966,22 +840,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -994,31 +868,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007863</t>
+          <t>008071</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合C</t>
+          <t>长信利泰灵活配置混合E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1030,12 +906,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008071</t>
+          <t>007863</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合E</t>
+          <t>长信利泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1045,12 +921,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1071,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,17 +958,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1102,14 +998,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1118,14 +1036,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1134,14 +1074,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.91</v>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.91</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506007</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科创板两年定开混合</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.89</t>
+          <t>76.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2802</t>
+          <t>0.4878</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519951</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合A</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>78.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.3333</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -664,34 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007863</t>
+          <t>506007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合C</t>
+          <t>广发科创板两年定开混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -700,34 +719,302 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008071</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合E</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -802,22 +1089,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>71.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2521</t>
+          <t>0.2802</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -840,22 +1127,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -868,33 +1155,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008071</t>
+          <t>007863</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合E</t>
+          <t>长信利泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -906,12 +1191,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007863</t>
+          <t>008071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合C</t>
+          <t>长信利泰灵活配置混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -921,12 +1206,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -998,6 +1283,212 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>001411</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688112-鼎阳科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.89</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.91</v>
       </c>
     </row>
@@ -549,6 +566,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013377</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,210 +1658,6 @@
       </c>
       <c r="H12" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发科创板两年定开混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2802</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519951</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007863</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008071</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1293,22 +1732,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>71.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2521</t>
+          <t>0.2802</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1331,22 +1770,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1359,33 +1798,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008071</t>
+          <t>007863</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合E</t>
+          <t>长信利泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1397,12 +1834,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007863</t>
+          <t>008071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信利泰灵活配置混合C</t>
+          <t>长信利泰灵活配置混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1412,12 +1849,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1489,6 +1926,212 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>001411</t>
         </is>
       </c>
